--- a/Vmin BDW/7-GM/BDW Class DRS.xlsx
+++ b/Vmin BDW/7-GM/BDW Class DRS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyapeleg\Desktop\Vmin\Vmin BDW\7-GM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="23250" windowHeight="9495" activeTab="3"/>
   </bookViews>
@@ -20,7 +25,7 @@
     <definedName name="Steps">Lists!$D$6:$D$8</definedName>
     <definedName name="TestPrograms">Lists!$E$6:$E$14</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -30,7 +35,7 @@
     <author>Nus, Yevgeni</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0">
+    <comment ref="O9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="0">
+    <comment ref="P9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="0">
+    <comment ref="S9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0">
+    <comment ref="T9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="0">
+    <comment ref="V9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X9" authorId="0">
+    <comment ref="X9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +424,7 @@
     <author>Nus, Yevgeni</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0">
+    <comment ref="O9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -698,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0">
+    <comment ref="R9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="0">
+    <comment ref="S9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -748,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="0">
+    <comment ref="U9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="0">
+    <comment ref="W9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -882,7 +887,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -901,7 +906,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -912,7 +917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="177"/>
         <scheme val="minor"/>
@@ -957,7 +962,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +992,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -996,7 +1001,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1007,7 +1012,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,7 +1021,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1032,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1036,7 +1041,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1052,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1056,7 +1061,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1067,7 +1072,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1076,7 +1081,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1087,7 +1092,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1099,7 +1104,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1108,7 +1113,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1119,7 +1124,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,7 +1133,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1139,7 +1144,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1148,7 +1153,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1162,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1173,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1188,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1192,7 +1197,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1373,7 +1378,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1382,7 +1387,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1398,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,7 +1407,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1413,7 +1418,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1422,7 +1427,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1433,7 +1438,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1442,7 +1447,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1453,7 +1458,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1462,7 +1467,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1473,7 +1478,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1482,7 +1487,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1493,7 +1498,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1502,7 +1507,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1513,7 +1518,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1522,7 +1527,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1538,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1542,7 +1547,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1553,7 +1558,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1562,7 +1567,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1573,7 +1578,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1582,7 +1587,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1593,7 +1598,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,7 +1607,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1613,7 +1618,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1622,7 +1627,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1633,7 +1638,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1642,7 +1647,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1655,11 +1660,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1673,7 +1678,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1681,20 +1686,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1702,7 +1707,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1710,14 +1715,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1984,9 +1989,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2034,6 +2036,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2049,6 +2054,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2097,7 +2105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2132,7 +2140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2347,14 +2355,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" ht="14.25" customHeight="1">
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="14.25" customHeight="1">
       <c r="C6" s="3">
         <v>2</v>
       </c>
@@ -2406,7 +2414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="14.25" customHeight="1">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -2435,17 +2443,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.25" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.875" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="30">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" ht="106.5" customHeight="1">
       <c r="C5" s="8">
         <v>2.1</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="120">
       <c r="C6" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2505,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="375">
       <c r="C7" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -2539,17 +2547,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="112.875" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.25" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="30">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" ht="45">
       <c r="C5" s="3">
         <v>3.1</v>
       </c>
@@ -2587,7 +2595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8">
       <c r="C6" s="3">
         <v>3.2</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="60">
       <c r="C7" s="3">
         <v>3.3</v>
       </c>
@@ -2619,7 +2627,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="3:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" ht="78" customHeight="1">
       <c r="C8" s="3">
         <v>3.4</v>
       </c>
@@ -2637,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="230.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" ht="230.25" customHeight="1">
       <c r="C9" s="3">
         <v>3.5</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" ht="30.75" customHeight="1">
       <c r="C10" s="3">
         <v>3.6</v>
       </c>
@@ -2684,284 +2692,284 @@
   <dimension ref="C1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="9" style="18" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="18" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="18" customWidth="1"/>
-    <col min="15" max="15" width="9" style="18"/>
-    <col min="16" max="16" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="18" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="18" customWidth="1"/>
-    <col min="19" max="20" width="11.5" style="18" customWidth="1"/>
-    <col min="21" max="21" width="16.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" style="18" customWidth="1"/>
-    <col min="24" max="24" width="15.75" style="18" customWidth="1"/>
-    <col min="25" max="25" width="18.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="9" style="17" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="17" customWidth="1"/>
+    <col min="15" max="15" width="9" style="17"/>
+    <col min="16" max="16" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="17" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="17" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" style="17" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="17" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="41"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-    </row>
-    <row r="2" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="35"/>
-      <c r="D2" s="44" t="s">
+    <row r="1" spans="3:28" ht="15.75" thickBot="1">
+      <c r="C1" s="40"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="31"/>
+    </row>
+    <row r="2" spans="3:28" ht="15.75" thickBot="1">
+      <c r="C2" s="34"/>
+      <c r="D2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34"/>
-    </row>
-    <row r="3" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="35"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-    </row>
-    <row r="4" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="35"/>
-      <c r="D4" s="44" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="33"/>
+    </row>
+    <row r="3" spans="3:28" ht="15.75" thickBot="1">
+      <c r="C3" s="34"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="33"/>
+    </row>
+    <row r="4" spans="3:28" ht="15.75" thickBot="1">
+      <c r="C4" s="34"/>
+      <c r="D4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>201430</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-    </row>
-    <row r="5" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="42"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="37"/>
-    </row>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="21"/>
-    </row>
-    <row r="7" spans="3:28" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C7" s="22"/>
-      <c r="D7" s="29" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="33"/>
+    </row>
+    <row r="5" spans="3:28" ht="15.75" thickBot="1">
+      <c r="C5" s="41"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36"/>
+    </row>
+    <row r="6" spans="3:28">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="20"/>
+    </row>
+    <row r="7" spans="3:28" ht="26.25">
+      <c r="C7" s="21"/>
+      <c r="D7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="24"/>
-    </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="24"/>
-    </row>
-    <row r="9" spans="3:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="22"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="23"/>
+    </row>
+    <row r="8" spans="3:28">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="23"/>
+    </row>
+    <row r="9" spans="3:28" ht="32.25" customHeight="1">
+      <c r="C9" s="21"/>
       <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
@@ -3034,11 +3042,11 @@
       <c r="AA9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="24"/>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C10" s="22"/>
-      <c r="D10" s="16" t="s">
+      <c r="AB9" s="23"/>
+    </row>
+    <row r="10" spans="3:28">
+      <c r="C10" s="21"/>
+      <c r="D10" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="13">
@@ -3062,17 +3070,17 @@
       <c r="K10" s="14">
         <v>4840</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>0.93</v>
       </c>
       <c r="M10" s="15">
         <f>(I10-L10)/I10</f>
         <v>1.0638297872340318E-2</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>5.12</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="44">
         <f>J10-N10</f>
         <v>42.75</v>
       </c>
@@ -3117,11 +3125,11 @@
       <c r="AA10" s="14">
         <v>32</v>
       </c>
-      <c r="AB10" s="24"/>
-    </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C11" s="22"/>
-      <c r="D11" s="16"/>
+      <c r="AB10" s="23"/>
+    </row>
+    <row r="11" spans="3:28">
+      <c r="C11" s="21"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="13">
         <v>619</v>
       </c>
@@ -3143,17 +3151,17 @@
       <c r="K11" s="14">
         <v>4870</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>0.7</v>
       </c>
       <c r="M11" s="15">
         <f t="shared" ref="M11:M22" si="0">(I11-L11)/I11</f>
         <v>-2.9411764705882214E-2</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>2.21</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="44">
         <f t="shared" ref="O11:O22" si="1">J11-N11</f>
         <v>3.8600000000000003</v>
       </c>
@@ -3198,11 +3206,11 @@
       <c r="AA11" s="14">
         <v>5</v>
       </c>
-      <c r="AB11" s="24"/>
-    </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C12" s="22"/>
-      <c r="D12" s="16"/>
+      <c r="AB11" s="23"/>
+    </row>
+    <row r="12" spans="3:28">
+      <c r="C12" s="21"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="13">
         <v>630</v>
       </c>
@@ -3224,17 +3232,17 @@
       <c r="K12" s="14">
         <v>490</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>0.96</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="0"/>
         <v>2.0408163265306142E-2</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>5.24</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="44">
         <f t="shared" si="1"/>
         <v>30.919999999999995</v>
       </c>
@@ -3279,11 +3287,11 @@
       <c r="AA12" s="14">
         <v>8</v>
       </c>
-      <c r="AB12" s="24"/>
-    </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
+      <c r="AB12" s="23"/>
+    </row>
+    <row r="13" spans="3:28">
+      <c r="C13" s="21"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="13">
         <v>631</v>
       </c>
@@ -3305,17 +3313,17 @@
       <c r="K13" s="14">
         <v>390</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>0.61</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="0"/>
         <v>3.1746031746031772E-2</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>4.2300000000000004</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="44">
         <f t="shared" si="1"/>
         <v>27.18</v>
       </c>
@@ -3360,11 +3368,11 @@
       <c r="AA13" s="14">
         <v>37</v>
       </c>
-      <c r="AB13" s="24"/>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C14" s="22"/>
-      <c r="D14" s="16"/>
+      <c r="AB13" s="23"/>
+    </row>
+    <row r="14" spans="3:28">
+      <c r="C14" s="21"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="13">
         <v>632</v>
       </c>
@@ -3386,17 +3394,17 @@
       <c r="K14" s="14">
         <v>530</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="16">
         <v>0.59</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="0"/>
         <v>-1.7241379310344845E-2</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <v>4.26</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="44">
         <f t="shared" si="1"/>
         <v>27.990000000000002</v>
       </c>
@@ -3441,11 +3449,11 @@
       <c r="AA14" s="14">
         <v>10</v>
       </c>
-      <c r="AB14" s="24"/>
-    </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C15" s="22"/>
-      <c r="D15" s="16"/>
+      <c r="AB14" s="23"/>
+    </row>
+    <row r="15" spans="3:28">
+      <c r="C15" s="21"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="13">
         <v>633</v>
       </c>
@@ -3467,17 +3475,17 @@
       <c r="K15" s="14">
         <v>1340</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="16">
         <v>0.82</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="0"/>
         <v>2.3809523809523832E-2</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="16">
         <v>3.46</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="44">
         <f t="shared" si="1"/>
         <v>29.82</v>
       </c>
@@ -3522,11 +3530,11 @@
       <c r="AA15" s="14">
         <v>5</v>
       </c>
-      <c r="AB15" s="24"/>
-    </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C16" s="22"/>
-      <c r="D16" s="16"/>
+      <c r="AB15" s="23"/>
+    </row>
+    <row r="16" spans="3:28">
+      <c r="C16" s="21"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="13">
         <v>635</v>
       </c>
@@ -3548,17 +3556,17 @@
       <c r="K16" s="14">
         <v>2740</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="16">
         <v>0.9</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="0"/>
         <v>-2.2727272727272749E-2</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <v>5.5</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="44">
         <f t="shared" si="1"/>
         <v>20.9</v>
       </c>
@@ -3603,11 +3611,11 @@
       <c r="AA16" s="14">
         <v>16</v>
       </c>
-      <c r="AB16" s="24"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C17" s="22"/>
-      <c r="D17" s="16"/>
+      <c r="AB16" s="23"/>
+    </row>
+    <row r="17" spans="3:28">
+      <c r="C17" s="21"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="13">
         <v>663</v>
       </c>
@@ -3629,17 +3637,17 @@
       <c r="K17" s="14">
         <v>180</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="16">
         <v>0.6</v>
       </c>
       <c r="M17" s="15">
         <f t="shared" si="0"/>
         <v>1.6393442622950834E-2</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="16">
         <v>3.06</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="44">
         <f t="shared" si="1"/>
         <v>35.83</v>
       </c>
@@ -3684,11 +3692,11 @@
       <c r="AA17" s="14">
         <v>2</v>
       </c>
-      <c r="AB17" s="24"/>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C18" s="22"/>
-      <c r="D18" s="16"/>
+      <c r="AB17" s="23"/>
+    </row>
+    <row r="18" spans="3:28">
+      <c r="C18" s="21"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="13">
         <v>664</v>
       </c>
@@ -3710,17 +3718,17 @@
       <c r="K18" s="14">
         <v>390</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="16">
         <v>0.74</v>
       </c>
       <c r="M18" s="15">
         <f t="shared" si="0"/>
         <v>1.3333333333333345E-2</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="16">
         <v>3.38</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="44">
         <f t="shared" si="1"/>
         <v>36.11</v>
       </c>
@@ -3765,11 +3773,11 @@
       <c r="AA18" s="14">
         <v>17</v>
       </c>
-      <c r="AB18" s="24"/>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C19" s="22"/>
-      <c r="D19" s="16"/>
+      <c r="AB18" s="23"/>
+    </row>
+    <row r="19" spans="3:28">
+      <c r="C19" s="21"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="13">
         <v>665</v>
       </c>
@@ -3791,17 +3799,17 @@
       <c r="K19" s="14">
         <v>580</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="16">
         <v>0.88</v>
       </c>
       <c r="M19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="16">
         <v>3.33</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="44">
         <f t="shared" si="1"/>
         <v>25.310000000000002</v>
       </c>
@@ -3846,11 +3854,11 @@
       <c r="AA19" s="14">
         <v>20</v>
       </c>
-      <c r="AB19" s="24"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C20" s="22"/>
-      <c r="D20" s="16"/>
+      <c r="AB19" s="23"/>
+    </row>
+    <row r="20" spans="3:28">
+      <c r="C20" s="21"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="13">
         <v>668</v>
       </c>
@@ -3872,17 +3880,17 @@
       <c r="K20" s="14">
         <v>2710</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="16">
         <v>0.73</v>
       </c>
       <c r="M20" s="15">
         <f t="shared" si="0"/>
         <v>1.3513513513513526E-2</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="16">
         <v>3.26</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="44">
         <f t="shared" si="1"/>
         <v>26.53</v>
       </c>
@@ -3927,11 +3935,11 @@
       <c r="AA20" s="14">
         <v>41</v>
       </c>
-      <c r="AB20" s="24"/>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C21" s="22"/>
-      <c r="D21" s="16"/>
+      <c r="AB20" s="23"/>
+    </row>
+    <row r="21" spans="3:28">
+      <c r="C21" s="21"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="13">
         <v>669</v>
       </c>
@@ -3953,17 +3961,17 @@
       <c r="K21" s="14">
         <v>250</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>0.9</v>
       </c>
       <c r="M21" s="15">
         <f t="shared" si="0"/>
         <v>1.0989010989010999E-2</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="16">
         <v>2.96</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="44">
         <f t="shared" si="1"/>
         <v>26.2</v>
       </c>
@@ -4008,11 +4016,11 @@
       <c r="AA21" s="14">
         <v>17</v>
       </c>
-      <c r="AB21" s="24"/>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C22" s="22"/>
-      <c r="D22" s="16"/>
+      <c r="AB21" s="23"/>
+    </row>
+    <row r="22" spans="3:28">
+      <c r="C22" s="21"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="13">
         <v>686</v>
       </c>
@@ -4034,17 +4042,17 @@
       <c r="K22" s="14">
         <v>4930</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <v>0.69</v>
       </c>
       <c r="M22" s="15">
         <f t="shared" si="0"/>
         <v>-2.9850746268656577E-2</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="16">
         <v>2.93</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="44">
         <f t="shared" si="1"/>
         <v>25.21</v>
       </c>
@@ -4089,93 +4097,93 @@
       <c r="AA22" s="14">
         <v>92</v>
       </c>
-      <c r="AB22" s="24"/>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="38">
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" spans="3:28">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="37">
         <f>SUM(K10:K22)</f>
         <v>24240</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="39">
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="38">
         <f>SUM($K10*O10,$K11*O11,$K12*O12,$K13*O13,$K14*O14,$K15*O15,$K16*O16,$K17*O17,$K18*O18,$K19*O19,$K20*O20,$K21*O21,$K22*O22)/$K23</f>
         <v>24.812805280528053</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="39">
         <f>SUM($K10*P10,$K11*P11,$K12*P12,$K13*P13,$K14*P14,$K15*P15,$K16*P16,$K17*P17,$K18*P18,$K19*P19,$K20*P20,$K21*P21,$K22*P22)/$K23</f>
         <v>0.82901423944800035</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="38">
         <f t="shared" ref="Q23:T23" si="7">SUM($K10*Q10,$K11*Q11,$K12*Q12,$K13*Q13,$K14*Q14,$K15*Q15,$K16*Q16,$K17*Q17,$K18*Q18,$K19*Q19,$K20*Q20,$K21*Q21,$K22*Q22)/$K23</f>
         <v>21.283828382838283</v>
       </c>
-      <c r="R23" s="39">
+      <c r="R23" s="38">
         <f t="shared" si="7"/>
         <v>0.65264026402640263</v>
       </c>
-      <c r="S23" s="39">
+      <c r="S23" s="38">
         <f t="shared" si="7"/>
         <v>21.936468646864686</v>
       </c>
-      <c r="T23" s="40">
+      <c r="T23" s="39">
         <f t="shared" si="7"/>
         <v>1.5264026402640265E-2</v>
       </c>
-      <c r="U23" s="23"/>
-      <c r="V23" s="40">
+      <c r="U23" s="22"/>
+      <c r="V23" s="39">
         <f t="shared" ref="V23:X23" si="8">SUM($K10*V10,$K11*V11,$K12*V12,$K13*V13,$K14*V14,$K15*V15,$K16*V16,$K17*V17,$K18*V18,$K19*V19,$K20*V20,$K21*V21,$K22*V22)/$K23</f>
         <v>0.97112211221122113</v>
       </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="40">
+      <c r="W23" s="22"/>
+      <c r="X23" s="39">
         <f t="shared" si="8"/>
         <v>0.73981023102310228</v>
       </c>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="24"/>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="24"/>
-    </row>
-    <row r="25" spans="3:28" ht="30" x14ac:dyDescent="0.2">
-      <c r="C25" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="23"/>
+    </row>
+    <row r="24" spans="3:28">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="23"/>
+    </row>
+    <row r="25" spans="3:28" ht="30">
+      <c r="C25" s="21"/>
       <c r="D25" s="12" t="s">
         <v>36</v>
       </c>
@@ -4248,11 +4256,11 @@
       <c r="AA25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AB25" s="24"/>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
-      <c r="D26" s="16" t="s">
+      <c r="AB25" s="23"/>
+    </row>
+    <row r="26" spans="3:28">
+      <c r="C26" s="21"/>
+      <c r="D26" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="13">
@@ -4276,14 +4284,14 @@
       <c r="K26" s="14">
         <v>4840</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="16">
         <v>0.93</v>
       </c>
       <c r="M26" s="15">
         <f>(I26-L26)/I26</f>
         <v>1.0638297872340318E-2</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="16">
         <v>5.12</v>
       </c>
       <c r="O26" s="14">
@@ -4329,11 +4337,11 @@
       <c r="AA26" s="14">
         <v>32</v>
       </c>
-      <c r="AB26" s="24"/>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C27" s="22"/>
-      <c r="D27" s="16"/>
+      <c r="AB26" s="23"/>
+    </row>
+    <row r="27" spans="3:28">
+      <c r="C27" s="21"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="13">
         <v>707</v>
       </c>
@@ -4355,14 +4363,14 @@
       <c r="K27" s="14">
         <v>4870</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="16">
         <v>0.7</v>
       </c>
       <c r="M27" s="15">
         <f t="shared" ref="M27:M38" si="9">(I27-L27)/I27</f>
         <v>-2.9411764705882214E-2</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="16">
         <v>2.21</v>
       </c>
       <c r="O27" s="14">
@@ -4408,11 +4416,11 @@
       <c r="AA27" s="14">
         <v>5</v>
       </c>
-      <c r="AB27" s="24"/>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C28" s="22"/>
-      <c r="D28" s="16"/>
+      <c r="AB27" s="23"/>
+    </row>
+    <row r="28" spans="3:28">
+      <c r="C28" s="21"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="13">
         <v>713</v>
       </c>
@@ -4434,14 +4442,14 @@
       <c r="K28" s="14">
         <v>490</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="16">
         <v>0.96</v>
       </c>
       <c r="M28" s="15">
         <f t="shared" si="9"/>
         <v>2.0408163265306142E-2</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="16">
         <v>5.24</v>
       </c>
       <c r="O28" s="14">
@@ -4487,11 +4495,11 @@
       <c r="AA28" s="14">
         <v>8</v>
       </c>
-      <c r="AB28" s="24"/>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C29" s="22"/>
-      <c r="D29" s="16"/>
+      <c r="AB28" s="23"/>
+    </row>
+    <row r="29" spans="3:28">
+      <c r="C29" s="21"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="13">
         <v>720</v>
       </c>
@@ -4513,14 +4521,14 @@
       <c r="K29" s="14">
         <v>390</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="16">
         <v>0.61</v>
       </c>
       <c r="M29" s="15">
         <f t="shared" si="9"/>
         <v>3.1746031746031772E-2</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="16">
         <v>4.2300000000000004</v>
       </c>
       <c r="O29" s="14">
@@ -4566,11 +4574,11 @@
       <c r="AA29" s="14">
         <v>37</v>
       </c>
-      <c r="AB29" s="24"/>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C30" s="22"/>
-      <c r="D30" s="16"/>
+      <c r="AB29" s="23"/>
+    </row>
+    <row r="30" spans="3:28">
+      <c r="C30" s="21"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="13">
         <v>722</v>
       </c>
@@ -4592,14 +4600,14 @@
       <c r="K30" s="14">
         <v>530</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="16">
         <v>0.59</v>
       </c>
       <c r="M30" s="15">
         <f t="shared" si="9"/>
         <v>-1.7241379310344845E-2</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="16">
         <v>4.26</v>
       </c>
       <c r="O30" s="14">
@@ -4645,11 +4653,11 @@
       <c r="AA30" s="14">
         <v>10</v>
       </c>
-      <c r="AB30" s="24"/>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C31" s="22"/>
-      <c r="D31" s="16"/>
+      <c r="AB30" s="23"/>
+    </row>
+    <row r="31" spans="3:28">
+      <c r="C31" s="21"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="13">
         <v>726</v>
       </c>
@@ -4671,14 +4679,14 @@
       <c r="K31" s="14">
         <v>1340</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="16">
         <v>0.82</v>
       </c>
       <c r="M31" s="15">
         <f t="shared" si="9"/>
         <v>2.3809523809523832E-2</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="16">
         <v>3.46</v>
       </c>
       <c r="O31" s="14">
@@ -4724,11 +4732,11 @@
       <c r="AA31" s="14">
         <v>5</v>
       </c>
-      <c r="AB31" s="24"/>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C32" s="22"/>
-      <c r="D32" s="16"/>
+      <c r="AB31" s="23"/>
+    </row>
+    <row r="32" spans="3:28">
+      <c r="C32" s="21"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="13">
         <v>733</v>
       </c>
@@ -4750,14 +4758,14 @@
       <c r="K32" s="14">
         <v>2740</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="16">
         <v>0.9</v>
       </c>
       <c r="M32" s="15">
         <f t="shared" si="9"/>
         <v>-2.2727272727272749E-2</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="16">
         <v>5.5</v>
       </c>
       <c r="O32" s="14">
@@ -4803,11 +4811,11 @@
       <c r="AA32" s="14">
         <v>16</v>
       </c>
-      <c r="AB32" s="24"/>
-    </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C33" s="22"/>
-      <c r="D33" s="16"/>
+      <c r="AB32" s="23"/>
+    </row>
+    <row r="33" spans="3:28">
+      <c r="C33" s="21"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="13">
         <v>741</v>
       </c>
@@ -4829,14 +4837,14 @@
       <c r="K33" s="14">
         <v>180</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="16">
         <v>0.6</v>
       </c>
       <c r="M33" s="15">
         <f t="shared" si="9"/>
         <v>1.6393442622950834E-2</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="16">
         <v>3.06</v>
       </c>
       <c r="O33" s="14">
@@ -4882,11 +4890,11 @@
       <c r="AA33" s="14">
         <v>2</v>
       </c>
-      <c r="AB33" s="24"/>
-    </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C34" s="22"/>
-      <c r="D34" s="16"/>
+      <c r="AB33" s="23"/>
+    </row>
+    <row r="34" spans="3:28">
+      <c r="C34" s="21"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="13">
         <v>743</v>
       </c>
@@ -4908,14 +4916,14 @@
       <c r="K34" s="14">
         <v>390</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="16">
         <v>0.74</v>
       </c>
       <c r="M34" s="15">
         <f t="shared" si="9"/>
         <v>1.3333333333333345E-2</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="16">
         <v>3.38</v>
       </c>
       <c r="O34" s="14">
@@ -4961,11 +4969,11 @@
       <c r="AA34" s="14">
         <v>17</v>
       </c>
-      <c r="AB34" s="24"/>
-    </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C35" s="22"/>
-      <c r="D35" s="16"/>
+      <c r="AB34" s="23"/>
+    </row>
+    <row r="35" spans="3:28">
+      <c r="C35" s="21"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="13">
         <v>746</v>
       </c>
@@ -4987,14 +4995,14 @@
       <c r="K35" s="14">
         <v>580</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="16">
         <v>0.88</v>
       </c>
       <c r="M35" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="16">
         <v>3.33</v>
       </c>
       <c r="O35" s="14">
@@ -5040,11 +5048,11 @@
       <c r="AA35" s="14">
         <v>20</v>
       </c>
-      <c r="AB35" s="24"/>
-    </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C36" s="22"/>
-      <c r="D36" s="16"/>
+      <c r="AB35" s="23"/>
+    </row>
+    <row r="36" spans="3:28">
+      <c r="C36" s="21"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="13">
         <v>747</v>
       </c>
@@ -5066,14 +5074,14 @@
       <c r="K36" s="14">
         <v>2710</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="16">
         <v>0.73</v>
       </c>
       <c r="M36" s="15">
         <f t="shared" si="9"/>
         <v>1.3513513513513526E-2</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="16">
         <v>3.26</v>
       </c>
       <c r="O36" s="14">
@@ -5119,11 +5127,11 @@
       <c r="AA36" s="14">
         <v>41</v>
       </c>
-      <c r="AB36" s="24"/>
-    </row>
-    <row r="37" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C37" s="22"/>
-      <c r="D37" s="16"/>
+      <c r="AB36" s="23"/>
+    </row>
+    <row r="37" spans="3:28">
+      <c r="C37" s="21"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="13">
         <v>748</v>
       </c>
@@ -5145,14 +5153,14 @@
       <c r="K37" s="14">
         <v>250</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="16">
         <v>0.9</v>
       </c>
       <c r="M37" s="15">
         <f t="shared" si="9"/>
         <v>1.0989010989010999E-2</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="16">
         <v>2.96</v>
       </c>
       <c r="O37" s="14">
@@ -5198,11 +5206,11 @@
       <c r="AA37" s="14">
         <v>17</v>
       </c>
-      <c r="AB37" s="24"/>
-    </row>
-    <row r="38" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C38" s="22"/>
-      <c r="D38" s="16"/>
+      <c r="AB37" s="23"/>
+    </row>
+    <row r="38" spans="3:28">
+      <c r="C38" s="21"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="13">
         <v>750</v>
       </c>
@@ -5224,14 +5232,14 @@
       <c r="K38" s="14">
         <v>4930</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="16">
         <v>0.69</v>
       </c>
       <c r="M38" s="15">
         <f t="shared" si="9"/>
         <v>-2.9850746268656577E-2</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="16">
         <v>2.93</v>
       </c>
       <c r="O38" s="14">
@@ -5277,146 +5285,146 @@
       <c r="AA38" s="14">
         <v>92</v>
       </c>
-      <c r="AB38" s="24"/>
-    </row>
-    <row r="39" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="38">
+      <c r="AB38" s="23"/>
+    </row>
+    <row r="39" spans="3:28">
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="37">
         <f>SUM(K26:K38)</f>
         <v>24240</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="39">
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="38">
         <f>SUM($K26*O26,$K27*O27,$K28*O28,$K29*O29,$K30*O30,$K31*O31,$K32*O32,$K33*O33,$K34*O34,$K35*O35,$K36*O36,$K37*O37,$K38*O38)/$K39</f>
         <v>24.812805280528053</v>
       </c>
-      <c r="P39" s="40">
+      <c r="P39" s="39">
         <f>SUM($K26*P26,$K27*P27,$K28*P28,$K29*P29,$K30*P30,$K31*P31,$K32*P32,$K33*P33,$K34*P34,$K35*P35,$K36*P36,$K37*P37,$K38*P38)/$K39</f>
         <v>0.82901146864686459</v>
       </c>
-      <c r="Q39" s="39">
+      <c r="Q39" s="38">
         <f t="shared" ref="Q39" si="14">SUM($K26*Q26,$K27*Q27,$K28*Q28,$K29*Q29,$K30*Q30,$K31*Q31,$K32*Q32,$K33*Q33,$K34*Q34,$K35*Q35,$K36*Q36,$K37*Q37,$K38*Q38)/$K39</f>
         <v>21.283828382838283</v>
       </c>
-      <c r="R39" s="39">
+      <c r="R39" s="38">
         <f t="shared" ref="R39" si="15">SUM($K26*R26,$K27*R27,$K28*R28,$K29*R29,$K30*R30,$K31*R31,$K32*R32,$K33*R33,$K34*R34,$K35*R35,$K36*R36,$K37*R37,$K38*R38)/$K39</f>
         <v>0.65264026402640263</v>
       </c>
-      <c r="S39" s="39">
+      <c r="S39" s="38">
         <f t="shared" ref="S39" si="16">SUM($K26*S26,$K27*S27,$K28*S28,$K29*S29,$K30*S30,$K31*S31,$K32*S32,$K33*S33,$K34*S34,$K35*S35,$K36*S36,$K37*S37,$K38*S38)/$K39</f>
         <v>21.936468646864686</v>
       </c>
-      <c r="T39" s="40">
+      <c r="T39" s="39">
         <f t="shared" ref="T39:X39" si="17">SUM($K26*T26,$K27*T27,$K28*T28,$K29*T29,$K30*T30,$K31*T31,$K32*T32,$K33*T33,$K34*T34,$K35*T35,$K36*T36,$K37*T37,$K38*T38)/$K39</f>
         <v>1.5264026402640265E-2</v>
       </c>
-      <c r="U39" s="23"/>
-      <c r="V39" s="40">
+      <c r="U39" s="22"/>
+      <c r="V39" s="39">
         <f t="shared" si="17"/>
         <v>0.97112211221122113</v>
       </c>
-      <c r="W39" s="23"/>
-      <c r="X39" s="40">
+      <c r="W39" s="22"/>
+      <c r="X39" s="39">
         <f t="shared" si="17"/>
         <v>0.76035026836834285</v>
       </c>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="24"/>
-    </row>
-    <row r="40" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="24"/>
-    </row>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="24"/>
-    </row>
-    <row r="42" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="27"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="23"/>
+    </row>
+    <row r="40" spans="3:28">
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="23"/>
+    </row>
+    <row r="41" spans="3:28">
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="23"/>
+    </row>
+    <row r="42" spans="3:28" ht="15.75" thickBot="1">
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5451,15 +5459,15 @@
       <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>88</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>68</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>89</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="C9">
         <v>201431</v>
       </c>
@@ -5523,7 +5531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="C10">
         <v>201432</v>
       </c>
@@ -5531,7 +5539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5">
       <c r="C11">
         <v>201433</v>
       </c>
@@ -5539,7 +5547,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5">
       <c r="C12">
         <v>201434</v>
       </c>
@@ -5547,7 +5555,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5">
       <c r="C13">
         <v>201435</v>
       </c>
@@ -5555,7 +5563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5">
       <c r="E14" t="s">
         <v>84</v>
       </c>
@@ -5573,272 +5581,272 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="9" style="18" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="13" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="18" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="18" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="18" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="18" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="18" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="18" customWidth="1"/>
-    <col min="20" max="20" width="16.25" style="18" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="18" style="18" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.75" style="18" customWidth="1"/>
-    <col min="24" max="24" width="18.875" style="18" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="20.875" style="18" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="22.5" style="18" hidden="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="9" style="17" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="18" style="17" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="17" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="41"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-    </row>
-    <row r="2" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="35"/>
-      <c r="D2" s="44" t="s">
+    <row r="1" spans="3:27" ht="15.75" thickBot="1">
+      <c r="C1" s="40"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="31"/>
+    </row>
+    <row r="2" spans="3:27" ht="15.75" thickBot="1">
+      <c r="C2" s="34"/>
+      <c r="D2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34"/>
-    </row>
-    <row r="3" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="35"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="34"/>
-    </row>
-    <row r="4" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="35"/>
-      <c r="D4" s="44" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33"/>
+    </row>
+    <row r="3" spans="3:27" ht="15.75" thickBot="1">
+      <c r="C3" s="34"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="33"/>
+    </row>
+    <row r="4" spans="3:27" ht="15.75" thickBot="1">
+      <c r="C4" s="34"/>
+      <c r="D4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>201430</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="34"/>
-    </row>
-    <row r="5" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="42"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="37"/>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="21"/>
-    </row>
-    <row r="7" spans="3:27" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C7" s="22"/>
-      <c r="D7" s="29" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="33"/>
+    </row>
+    <row r="5" spans="3:27" ht="15.75" thickBot="1">
+      <c r="C5" s="41"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
+    </row>
+    <row r="6" spans="3:27">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="20"/>
+    </row>
+    <row r="7" spans="3:27" ht="26.25">
+      <c r="C7" s="21"/>
+      <c r="D7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="24"/>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="24"/>
-    </row>
-    <row r="9" spans="3:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="23"/>
+    </row>
+    <row r="8" spans="3:27">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="23"/>
+    </row>
+    <row r="9" spans="3:27" ht="32.25" customHeight="1">
+      <c r="C9" s="21"/>
       <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
@@ -5908,11 +5916,11 @@
       <c r="Z9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="24"/>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C10" s="22"/>
-      <c r="D10" s="16" t="s">
+      <c r="AA9" s="23"/>
+    </row>
+    <row r="10" spans="3:27">
+      <c r="C10" s="21"/>
+      <c r="D10" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -5933,17 +5941,17 @@
       <c r="J10" s="14">
         <v>4840</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>0.93</v>
       </c>
       <c r="L10" s="15">
         <f>(H10-K10)/H10</f>
         <v>1.0638297872340318E-2</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>5.12</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="44">
         <f>I10-M10</f>
         <v>42.75</v>
       </c>
@@ -5988,11 +5996,11 @@
       <c r="Z10" s="14">
         <v>32</v>
       </c>
-      <c r="AA10" s="24"/>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C11" s="22"/>
-      <c r="D11" s="16"/>
+      <c r="AA10" s="23"/>
+    </row>
+    <row r="11" spans="3:27">
+      <c r="C11" s="21"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
@@ -6011,17 +6019,17 @@
       <c r="J11" s="14">
         <v>4870</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>0.7</v>
       </c>
       <c r="L11" s="15">
         <f t="shared" ref="L11:L22" si="0">(H11-K11)/H11</f>
         <v>-2.9411764705882214E-2</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>2.21</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="44">
         <f t="shared" ref="N11:N22" si="1">I11-M11</f>
         <v>3.8600000000000003</v>
       </c>
@@ -6066,11 +6074,11 @@
       <c r="Z11" s="14">
         <v>5</v>
       </c>
-      <c r="AA11" s="24"/>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C12" s="22"/>
-      <c r="D12" s="16"/>
+      <c r="AA11" s="23"/>
+    </row>
+    <row r="12" spans="3:27">
+      <c r="C12" s="21"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="14" t="s">
         <v>58</v>
       </c>
@@ -6089,17 +6097,17 @@
       <c r="J12" s="14">
         <v>490</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>0.96</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="0"/>
         <v>2.0408163265306142E-2</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>5.24</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="44">
         <f t="shared" si="1"/>
         <v>30.919999999999995</v>
       </c>
@@ -6144,11 +6152,11 @@
       <c r="Z12" s="14">
         <v>8</v>
       </c>
-      <c r="AA12" s="24"/>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
+      <c r="AA12" s="23"/>
+    </row>
+    <row r="13" spans="3:27">
+      <c r="C13" s="21"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="14" t="s">
         <v>58</v>
       </c>
@@ -6167,17 +6175,17 @@
       <c r="J13" s="14">
         <v>390</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>0.61</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="0"/>
         <v>3.1746031746031772E-2</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>4.2300000000000004</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="44">
         <f t="shared" si="1"/>
         <v>27.18</v>
       </c>
@@ -6222,11 +6230,11 @@
       <c r="Z13" s="14">
         <v>37</v>
       </c>
-      <c r="AA13" s="24"/>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C14" s="22"/>
-      <c r="D14" s="16"/>
+      <c r="AA13" s="23"/>
+    </row>
+    <row r="14" spans="3:27">
+      <c r="C14" s="21"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="14" t="s">
         <v>58</v>
       </c>
@@ -6245,17 +6253,17 @@
       <c r="J14" s="14">
         <v>530</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>0.59</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="0"/>
         <v>-1.7241379310344845E-2</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>4.26</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <f t="shared" si="1"/>
         <v>27.990000000000002</v>
       </c>
@@ -6300,11 +6308,11 @@
       <c r="Z14" s="14">
         <v>10</v>
       </c>
-      <c r="AA14" s="24"/>
-    </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C15" s="22"/>
-      <c r="D15" s="16"/>
+      <c r="AA14" s="23"/>
+    </row>
+    <row r="15" spans="3:27">
+      <c r="C15" s="21"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="14" t="s">
         <v>58</v>
       </c>
@@ -6323,17 +6331,17 @@
       <c r="J15" s="14">
         <v>1340</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>0.82</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="0"/>
         <v>2.3809523809523832E-2</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>3.46</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="44">
         <f t="shared" si="1"/>
         <v>29.82</v>
       </c>
@@ -6378,11 +6386,11 @@
       <c r="Z15" s="14">
         <v>5</v>
       </c>
-      <c r="AA15" s="24"/>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C16" s="22"/>
-      <c r="D16" s="16"/>
+      <c r="AA15" s="23"/>
+    </row>
+    <row r="16" spans="3:27">
+      <c r="C16" s="21"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
@@ -6401,17 +6409,17 @@
       <c r="J16" s="14">
         <v>2740</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>0.9</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="0"/>
         <v>-2.2727272727272749E-2</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>5.5</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="44">
         <f t="shared" si="1"/>
         <v>20.9</v>
       </c>
@@ -6456,11 +6464,11 @@
       <c r="Z16" s="14">
         <v>16</v>
       </c>
-      <c r="AA16" s="24"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C17" s="22"/>
-      <c r="D17" s="16"/>
+      <c r="AA16" s="23"/>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="21"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="14" t="s">
         <v>60</v>
       </c>
@@ -6479,17 +6487,17 @@
       <c r="J17" s="14">
         <v>180</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>0.6</v>
       </c>
       <c r="L17" s="15">
         <f t="shared" si="0"/>
         <v>1.6393442622950834E-2</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <v>3.06</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="44">
         <f t="shared" si="1"/>
         <v>35.83</v>
       </c>
@@ -6534,11 +6542,11 @@
       <c r="Z17" s="14">
         <v>2</v>
       </c>
-      <c r="AA17" s="24"/>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C18" s="22"/>
-      <c r="D18" s="16"/>
+      <c r="AA17" s="23"/>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="21"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="14" t="s">
         <v>60</v>
       </c>
@@ -6557,17 +6565,17 @@
       <c r="J18" s="14">
         <v>390</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>0.74</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" si="0"/>
         <v>1.3333333333333345E-2</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <v>3.38</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="44">
         <f t="shared" si="1"/>
         <v>36.11</v>
       </c>
@@ -6612,11 +6620,11 @@
       <c r="Z18" s="14">
         <v>17</v>
       </c>
-      <c r="AA18" s="24"/>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C19" s="22"/>
-      <c r="D19" s="16"/>
+      <c r="AA18" s="23"/>
+    </row>
+    <row r="19" spans="3:27">
+      <c r="C19" s="21"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="14" t="s">
         <v>60</v>
       </c>
@@ -6635,17 +6643,17 @@
       <c r="J19" s="14">
         <v>580</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>0.88</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <v>3.33</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="44">
         <f t="shared" si="1"/>
         <v>25.310000000000002</v>
       </c>
@@ -6690,11 +6698,11 @@
       <c r="Z19" s="14">
         <v>20</v>
       </c>
-      <c r="AA19" s="24"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C20" s="22"/>
-      <c r="D20" s="16"/>
+      <c r="AA19" s="23"/>
+    </row>
+    <row r="20" spans="3:27">
+      <c r="C20" s="21"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="14" t="s">
         <v>60</v>
       </c>
@@ -6713,17 +6721,17 @@
       <c r="J20" s="14">
         <v>2710</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="16">
         <v>0.73</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="0"/>
         <v>1.3513513513513526E-2</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <v>3.26</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="44">
         <f t="shared" si="1"/>
         <v>26.53</v>
       </c>
@@ -6768,11 +6776,11 @@
       <c r="Z20" s="14">
         <v>41</v>
       </c>
-      <c r="AA20" s="24"/>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C21" s="22"/>
-      <c r="D21" s="16"/>
+      <c r="AA20" s="23"/>
+    </row>
+    <row r="21" spans="3:27">
+      <c r="C21" s="21"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="14" t="s">
         <v>60</v>
       </c>
@@ -6791,17 +6799,17 @@
       <c r="J21" s="14">
         <v>250</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="16">
         <v>0.9</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="0"/>
         <v>1.0989010989010999E-2</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <v>2.96</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="44">
         <f t="shared" si="1"/>
         <v>26.2</v>
       </c>
@@ -6846,11 +6854,11 @@
       <c r="Z21" s="14">
         <v>17</v>
       </c>
-      <c r="AA21" s="24"/>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C22" s="22"/>
-      <c r="D22" s="16"/>
+      <c r="AA21" s="23"/>
+    </row>
+    <row r="22" spans="3:27">
+      <c r="C22" s="21"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="14" t="s">
         <v>61</v>
       </c>
@@ -6869,17 +6877,17 @@
       <c r="J22" s="14">
         <v>4930</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="16">
         <v>0.69</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="0"/>
         <v>-2.9850746268656577E-2</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="16">
         <v>2.93</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="44">
         <f t="shared" si="1"/>
         <v>25.21</v>
       </c>
@@ -6924,91 +6932,91 @@
       <c r="Z22" s="14">
         <v>92</v>
       </c>
-      <c r="AA22" s="24"/>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="38">
+      <c r="AA22" s="23"/>
+    </row>
+    <row r="23" spans="3:27">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="37">
         <f>SUM(J10:J22)</f>
         <v>24240</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="39">
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="38">
         <f>SUM($J10*N10,$J11*N11,$J12*N12,$J13*N13,$J14*N14,$J15*N15,$J16*N16,$J17*N17,$J18*N18,$J19*N19,$J20*N20,$J21*N21,$J22*N22)/$J23</f>
         <v>24.812805280528053</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="39">
         <f>SUM($J10*O10,$J11*O11,$J12*O12,$J13*O13,$J14*O14,$J15*O15,$J16*O16,$J17*O17,$J18*O18,$J19*O19,$J20*O20,$J21*O21,$J22*O22)/$J23</f>
         <v>0.82901423944800035</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="38">
         <f t="shared" ref="P23:S23" si="7">SUM($J10*P10,$J11*P11,$J12*P12,$J13*P13,$J14*P14,$J15*P15,$J16*P16,$J17*P17,$J18*P18,$J19*P19,$J20*P20,$J21*P21,$J22*P22)/$J23</f>
         <v>21.283828382838283</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="38">
         <f t="shared" si="7"/>
         <v>0.65264026402640263</v>
       </c>
-      <c r="R23" s="39">
+      <c r="R23" s="38">
         <f t="shared" si="7"/>
         <v>21.936468646864686</v>
       </c>
-      <c r="S23" s="40">
+      <c r="S23" s="39">
         <f t="shared" si="7"/>
         <v>1.5264026402640265E-2</v>
       </c>
-      <c r="T23" s="23"/>
-      <c r="U23" s="40">
+      <c r="T23" s="22"/>
+      <c r="U23" s="39">
         <f t="shared" ref="U23:W23" si="8">SUM($J10*U10,$J11*U11,$J12*U12,$J13*U13,$J14*U14,$J15*U15,$J16*U16,$J17*U17,$J18*U18,$J19*U19,$J20*U20,$J21*U21,$J22*U22)/$J23</f>
         <v>0.97112211221122113</v>
       </c>
-      <c r="V23" s="23"/>
-      <c r="W23" s="40">
+      <c r="V23" s="22"/>
+      <c r="W23" s="39">
         <f t="shared" si="8"/>
         <v>0.73981023102310228</v>
       </c>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="24"/>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="24"/>
-    </row>
-    <row r="25" spans="3:27" ht="30" x14ac:dyDescent="0.2">
-      <c r="C25" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="23"/>
+    </row>
+    <row r="24" spans="3:27">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="23"/>
+    </row>
+    <row r="25" spans="3:27" ht="30">
+      <c r="C25" s="21"/>
       <c r="D25" s="12" t="s">
         <v>36</v>
       </c>
@@ -7078,11 +7086,11 @@
       <c r="Z25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AA25" s="24"/>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
-      <c r="D26" s="16" t="s">
+      <c r="AA25" s="23"/>
+    </row>
+    <row r="26" spans="3:27">
+      <c r="C26" s="21"/>
+      <c r="D26" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="14" t="s">
@@ -7103,14 +7111,14 @@
       <c r="J26" s="14">
         <v>4840</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="16">
         <v>0.93</v>
       </c>
       <c r="L26" s="15">
         <f>(H26-K26)/H26</f>
         <v>1.0638297872340318E-2</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <v>5.12</v>
       </c>
       <c r="N26" s="14">
@@ -7156,11 +7164,11 @@
       <c r="Z26" s="14">
         <v>32</v>
       </c>
-      <c r="AA26" s="24"/>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C27" s="22"/>
-      <c r="D27" s="16"/>
+      <c r="AA26" s="23"/>
+    </row>
+    <row r="27" spans="3:27">
+      <c r="C27" s="21"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="14" t="s">
         <v>55</v>
       </c>
@@ -7179,14 +7187,14 @@
       <c r="J27" s="14">
         <v>4870</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="16">
         <v>0.7</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" ref="L27:L38" si="9">(H27-K27)/H27</f>
         <v>-2.9411764705882214E-2</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="16">
         <v>2.21</v>
       </c>
       <c r="N27" s="14">
@@ -7232,11 +7240,11 @@
       <c r="Z27" s="14">
         <v>5</v>
       </c>
-      <c r="AA27" s="24"/>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C28" s="22"/>
-      <c r="D28" s="16"/>
+      <c r="AA27" s="23"/>
+    </row>
+    <row r="28" spans="3:27">
+      <c r="C28" s="21"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="14" t="s">
         <v>55</v>
       </c>
@@ -7255,14 +7263,14 @@
       <c r="J28" s="14">
         <v>490</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="16">
         <v>0.96</v>
       </c>
       <c r="L28" s="15">
         <f t="shared" si="9"/>
         <v>2.0408163265306142E-2</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <v>5.24</v>
       </c>
       <c r="N28" s="14">
@@ -7308,11 +7316,11 @@
       <c r="Z28" s="14">
         <v>8</v>
       </c>
-      <c r="AA28" s="24"/>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C29" s="22"/>
-      <c r="D29" s="16"/>
+      <c r="AA28" s="23"/>
+    </row>
+    <row r="29" spans="3:27">
+      <c r="C29" s="21"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="14" t="s">
         <v>58</v>
       </c>
@@ -7331,14 +7339,14 @@
       <c r="J29" s="14">
         <v>390</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="16">
         <v>0.61</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="9"/>
         <v>3.1746031746031772E-2</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="16">
         <v>4.2300000000000004</v>
       </c>
       <c r="N29" s="14">
@@ -7384,11 +7392,11 @@
       <c r="Z29" s="14">
         <v>37</v>
       </c>
-      <c r="AA29" s="24"/>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C30" s="22"/>
-      <c r="D30" s="16"/>
+      <c r="AA29" s="23"/>
+    </row>
+    <row r="30" spans="3:27">
+      <c r="C30" s="21"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="14" t="s">
         <v>58</v>
       </c>
@@ -7407,14 +7415,14 @@
       <c r="J30" s="14">
         <v>530</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="16">
         <v>0.59</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="9"/>
         <v>-1.7241379310344845E-2</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="16">
         <v>4.26</v>
       </c>
       <c r="N30" s="14">
@@ -7460,11 +7468,11 @@
       <c r="Z30" s="14">
         <v>10</v>
       </c>
-      <c r="AA30" s="24"/>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C31" s="22"/>
-      <c r="D31" s="16"/>
+      <c r="AA30" s="23"/>
+    </row>
+    <row r="31" spans="3:27">
+      <c r="C31" s="21"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="14" t="s">
         <v>58</v>
       </c>
@@ -7483,14 +7491,14 @@
       <c r="J31" s="14">
         <v>1340</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="16">
         <v>0.82</v>
       </c>
       <c r="L31" s="15">
         <f t="shared" si="9"/>
         <v>2.3809523809523832E-2</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="16">
         <v>3.46</v>
       </c>
       <c r="N31" s="14">
@@ -7536,11 +7544,11 @@
       <c r="Z31" s="14">
         <v>5</v>
       </c>
-      <c r="AA31" s="24"/>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C32" s="22"/>
-      <c r="D32" s="16"/>
+      <c r="AA31" s="23"/>
+    </row>
+    <row r="32" spans="3:27">
+      <c r="C32" s="21"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="14" t="s">
         <v>58</v>
       </c>
@@ -7559,14 +7567,14 @@
       <c r="J32" s="14">
         <v>2740</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="16">
         <v>0.9</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="9"/>
         <v>-2.2727272727272749E-2</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="16">
         <v>5.5</v>
       </c>
       <c r="N32" s="14">
@@ -7612,11 +7620,11 @@
       <c r="Z32" s="14">
         <v>16</v>
       </c>
-      <c r="AA32" s="24"/>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C33" s="22"/>
-      <c r="D33" s="16"/>
+      <c r="AA32" s="23"/>
+    </row>
+    <row r="33" spans="3:27">
+      <c r="C33" s="21"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="14" t="s">
         <v>60</v>
       </c>
@@ -7635,14 +7643,14 @@
       <c r="J33" s="14">
         <v>180</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="16">
         <v>0.6</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="9"/>
         <v>1.6393442622950834E-2</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="16">
         <v>3.06</v>
       </c>
       <c r="N33" s="14">
@@ -7688,11 +7696,11 @@
       <c r="Z33" s="14">
         <v>2</v>
       </c>
-      <c r="AA33" s="24"/>
-    </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C34" s="22"/>
-      <c r="D34" s="16"/>
+      <c r="AA33" s="23"/>
+    </row>
+    <row r="34" spans="3:27">
+      <c r="C34" s="21"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="14" t="s">
         <v>60</v>
       </c>
@@ -7711,14 +7719,14 @@
       <c r="J34" s="14">
         <v>390</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="16">
         <v>0.74</v>
       </c>
       <c r="L34" s="15">
         <f t="shared" si="9"/>
         <v>1.3333333333333345E-2</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="16">
         <v>3.38</v>
       </c>
       <c r="N34" s="14">
@@ -7764,11 +7772,11 @@
       <c r="Z34" s="14">
         <v>17</v>
       </c>
-      <c r="AA34" s="24"/>
-    </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C35" s="22"/>
-      <c r="D35" s="16"/>
+      <c r="AA34" s="23"/>
+    </row>
+    <row r="35" spans="3:27">
+      <c r="C35" s="21"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="14" t="s">
         <v>60</v>
       </c>
@@ -7787,14 +7795,14 @@
       <c r="J35" s="14">
         <v>580</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="16">
         <v>0.88</v>
       </c>
       <c r="L35" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="16">
         <v>3.33</v>
       </c>
       <c r="N35" s="14">
@@ -7840,11 +7848,11 @@
       <c r="Z35" s="14">
         <v>20</v>
       </c>
-      <c r="AA35" s="24"/>
-    </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C36" s="22"/>
-      <c r="D36" s="16"/>
+      <c r="AA35" s="23"/>
+    </row>
+    <row r="36" spans="3:27">
+      <c r="C36" s="21"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="14" t="s">
         <v>60</v>
       </c>
@@ -7863,14 +7871,14 @@
       <c r="J36" s="14">
         <v>2710</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="16">
         <v>0.73</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="9"/>
         <v>1.3513513513513526E-2</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="16">
         <v>3.26</v>
       </c>
       <c r="N36" s="14">
@@ -7916,11 +7924,11 @@
       <c r="Z36" s="14">
         <v>41</v>
       </c>
-      <c r="AA36" s="24"/>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C37" s="22"/>
-      <c r="D37" s="16"/>
+      <c r="AA36" s="23"/>
+    </row>
+    <row r="37" spans="3:27">
+      <c r="C37" s="21"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="14" t="s">
         <v>60</v>
       </c>
@@ -7939,14 +7947,14 @@
       <c r="J37" s="14">
         <v>250</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="16">
         <v>0.9</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="9"/>
         <v>1.0989010989010999E-2</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="16">
         <v>2.96</v>
       </c>
       <c r="N37" s="14">
@@ -7992,11 +8000,11 @@
       <c r="Z37" s="14">
         <v>17</v>
       </c>
-      <c r="AA37" s="24"/>
-    </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C38" s="22"/>
-      <c r="D38" s="16"/>
+      <c r="AA37" s="23"/>
+    </row>
+    <row r="38" spans="3:27">
+      <c r="C38" s="21"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="14" t="s">
         <v>60</v>
       </c>
@@ -8015,14 +8023,14 @@
       <c r="J38" s="14">
         <v>4930</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="16">
         <v>0.69</v>
       </c>
       <c r="L38" s="15">
         <f t="shared" si="9"/>
         <v>-2.9850746268656577E-2</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>2.93</v>
       </c>
       <c r="N38" s="14">
@@ -8068,142 +8076,142 @@
       <c r="Z38" s="14">
         <v>92</v>
       </c>
-      <c r="AA38" s="24"/>
-    </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="38">
+      <c r="AA38" s="23"/>
+    </row>
+    <row r="39" spans="3:27">
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="37">
         <f>SUM(J26:J38)</f>
         <v>24240</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="39">
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="38">
         <f>SUM($J26*N26,$J27*N27,$J28*N28,$J29*N29,$J30*N30,$J31*N31,$J32*N32,$J33*N33,$J34*N34,$J35*N35,$J36*N36,$J37*N37,$J38*N38)/$J39</f>
         <v>24.812805280528053</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O39" s="39">
         <f>SUM($J26*O26,$J27*O27,$J28*O28,$J29*O29,$J30*O30,$J31*O31,$J32*O32,$J33*O33,$J34*O34,$J35*O35,$J36*O36,$J37*O37,$J38*O38)/$J39</f>
         <v>0.82901146864686459</v>
       </c>
-      <c r="P39" s="39">
+      <c r="P39" s="38">
         <f t="shared" ref="P39:W39" si="14">SUM($J26*P26,$J27*P27,$J28*P28,$J29*P29,$J30*P30,$J31*P31,$J32*P32,$J33*P33,$J34*P34,$J35*P35,$J36*P36,$J37*P37,$J38*P38)/$J39</f>
         <v>21.283828382838283</v>
       </c>
-      <c r="Q39" s="39">
+      <c r="Q39" s="38">
         <f t="shared" si="14"/>
         <v>0.65264026402640263</v>
       </c>
-      <c r="R39" s="39">
+      <c r="R39" s="38">
         <f t="shared" si="14"/>
         <v>21.936468646864686</v>
       </c>
-      <c r="S39" s="40">
+      <c r="S39" s="39">
         <f t="shared" si="14"/>
         <v>1.5264026402640265E-2</v>
       </c>
-      <c r="T39" s="23"/>
-      <c r="U39" s="40">
+      <c r="T39" s="22"/>
+      <c r="U39" s="39">
         <f t="shared" si="14"/>
         <v>0.97112211221122113</v>
       </c>
-      <c r="V39" s="23"/>
-      <c r="W39" s="40">
+      <c r="V39" s="22"/>
+      <c r="W39" s="39">
         <f t="shared" si="14"/>
         <v>0.76035026836834285</v>
       </c>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="24"/>
-    </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="24"/>
-    </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="24"/>
-    </row>
-    <row r="42" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="27"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="23"/>
+    </row>
+    <row r="40" spans="3:27">
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="23"/>
+    </row>
+    <row r="41" spans="3:27">
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="23"/>
+    </row>
+    <row r="42" spans="3:27" ht="15.75" thickBot="1">
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
